--- a/premise/data/additional_inventories/lci-concentrating-solar-power.xlsx
+++ b/premise/data/additional_inventories/lci-concentrating-solar-power.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DAE798-5C2A-2B46-9813-D1EBFB4DFA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6C4811-6497-584C-87CB-E24B3D08623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$132</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="118">
   <si>
     <t>Activity</t>
   </si>
@@ -139,9 +139,6 @@
     <t>electricity production, at 110 MW concentrating solar power plant, with thermal energy storage</t>
   </si>
   <si>
-    <t>110 MW concentrating solar power plant in Spain, with a thermal energy storage of 9 hours to allow for almost continuous operation. Abengoa provided the quantification of the inventory of the CSP plant with a storage capacity of 17.5 equivalent hours in nominal conditions based on real data, down.scaled to 9 equivalent hour. The inventory of inputs and outputs was obtained by scaling the values of the plant with a storage capacity of 17.5 h using the technical information obtained in the dimensioning simulations as scale factors. Total area: 5,677,740 m2. Gross power: 110 MW. Lifetime: 30 years. Produced energy: 645,338,304 kWh/year. Capacity factor: 71%. Number of heliostats: 7766. Receiver power: 637.50 MW. Thermal energy storage capacity: 2390 MWh_th. Volume of salts: 12,464 m3. Source: Gemma Gasa, Cristina Prieto, Anton Lopez-Roman, Luisa F. Cabeza, Life cycle assessment (LCA) of a concentrating solar power (CSP) plant in tower configuration with different storage capacity in molten salts, Journal of Energy Storage, 2022, https://doi.org/10.1016/j.est.2022.105219.</t>
-  </si>
-  <si>
     <t>concentrating solar power plant construction, 110 MW</t>
   </si>
   <si>
@@ -380,6 +377,18 @@
   </si>
   <si>
     <t>square meter-year</t>
+  </si>
+  <si>
+    <t>110 MW concentrating solar power plant in Spain, with a thermal energy storage of 9 hours to allow for almost continuous operation. Abengoa provided the quantification of the inventory of the CSP plant with a storage capacity of 17.5 equivalent hours in nominal conditions based on real data, down-scaled to 9 equivalent hour. The inventory of inputs and outputs was obtained by scaling the values of the plant with a storage capacity of 17.5 h using the technical information obtained in the dimensioning simulations as scale factors. Total area: 5,677,740 m2. Gross power: 110 MW. Lifetime: 30 years. Produced energy: 645,338,304 kWh/year. Capacity factor: 71%. Number of heliostats: 7766. Receiver power: 637.50 MW. Thermal energy storage capacity: 2390 MWh_th. Volume of salts: 12,464 m3. Source: Gemma Gasa, Cristina Prieto, Anton Lopez-Roman, Luisa F. Cabeza, Life cycle assessment (LCA) of a concentrating solar power (CSP) plant in tower configuration with different storage capacity in molten salts, Journal of Energy Storage, 2022, https://doi.org/10.1016/j.est.2022.105219.</t>
+  </si>
+  <si>
+    <t>heat production, at 110 MW concentrating solar power plant, with thermal energy storage</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>heat</t>
   </si>
 </sst>
 </file>
@@ -392,9 +401,16 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -449,16 +465,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -741,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,8 +815,8 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
+      <c r="B6" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -920,7 +937,7 @@
         <v>7.7478742064565259E-2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -955,7 +972,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <f>1/(645338304*30)</f>
@@ -971,12 +988,12 @@
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <f>-B17</f>
@@ -992,7 +1009,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1000,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1023,16 +1040,16 @@
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>91</v>
+      <c r="B23" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
+      <c r="B24" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,8 +1064,8 @@
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>8</v>
+      <c r="B26" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,7 +1110,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
         <f>B20</f>
-        <v>concentrating solar power plant construction, 110 MW</v>
+        <v>heat production, at 110 MW concentrating solar power plant, with thermal energy storage</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -1103,7 +1120,7 @@
       </c>
       <c r="D30" s="2" t="str">
         <f>B26</f>
-        <v>unit</v>
+        <v>megajoule</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>15</v>
@@ -1113,41 +1130,40 @@
       </c>
       <c r="H30" s="2" t="str">
         <f>B24</f>
-        <v>concentrating power plant, 110 MW</v>
+        <v>heat</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="4">
-        <v>7800000</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <f>(4800000/645338304)/3.6</f>
+        <v>2.0660997883884067E-3</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="4">
-        <v>26000000</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <f>(50000*1000)/645338304/3.6</f>
+        <v>2.1521872795712573E-2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
@@ -1155,1238 +1171,1465 @@
       <c r="F32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="4">
-        <v>200000</v>
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <f>55000/645338304/3.6</f>
+        <v>2.3674060075283826E-5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="4">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <f>1/(645338304*30*3.6)</f>
+        <v>1.4347915197141714E-11</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <f>-B34</f>
+        <v>-1.4347915197141714E-11</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="str">
+        <f>B37</f>
+        <v>concentrating solar power plant construction, 110 MW</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>B43</f>
+        <v>unit</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f>B41</f>
+        <v>concentrating power plant, 110 MW</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="4">
+        <v>7800000</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="4">
+        <v>26000000</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="4">
         <f>2200*1000</f>
         <v>2200000</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="B52" s="4">
         <f>420*1000</f>
         <v>420000</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="B53" s="2">
         <f>70000</f>
         <v>70000</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="B54" s="2">
         <f>77000</f>
         <v>77000</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="B55" s="2">
         <f>110000</f>
         <v>110000</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="2">
-        <v>1700000</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2">
         <f>240000</f>
         <v>240000</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="C57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
         <f>24000</f>
         <v>24000</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="C58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="2">
         <f>240000</f>
         <v>240000</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="2">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="2">
         <f>17000</f>
         <v>17000</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="F60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2">
         <f>3200*1000</f>
         <v>3200000</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="2">
+      <c r="B62" s="2">
         <f>12000</f>
         <v>12000</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="C62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="2">
         <f>82000</f>
         <v>82000</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="C63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="2">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="B65" s="2">
         <f>350000</f>
         <v>350000</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="C65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="2">
         <f>0.084*1000</f>
         <v>84</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="C66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2">
         <f>2300</f>
         <v>2300</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="B68" s="2">
         <f>360*1000</f>
         <v>360000</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="C68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="2">
         <f>280*1000</f>
         <v>280000</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="2">
+      <c r="C69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="2">
         <f>530*1000</f>
         <v>530000</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B54" s="2">
+      <c r="C70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="2">
         <f>75000</f>
         <v>75000</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="B72" s="2">
         <f>0.06*1000</f>
         <v>60</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="B73" s="2">
         <f>18000</f>
         <v>18000</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="2">
+      <c r="B74" s="2">
         <f>62000</f>
         <v>62000</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="C74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="2">
         <f>2100</f>
         <v>2100</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="C75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="2">
         <f>6100</f>
         <v>6100</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="2">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2">
         <f>23000*1000</f>
         <v>23000000</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="C77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="2">
         <f>910000</f>
         <v>910000</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="C78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="2">
         <f>1100000</f>
         <v>1100000</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H62" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2">
+      <c r="B80" s="2">
         <f>420000</f>
         <v>420000</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="C80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7100</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="2">
-        <v>7100</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="2">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="2">
         <f>590*1000</f>
         <v>590000</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="C82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5400</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2">
-        <v>5400</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="B84" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2">
-        <v>3500</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" s="2" t="s">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B69" s="2">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="2">
         <f>290000</f>
         <v>290000</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="C86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="2">
         <f>5677740*30</f>
         <v>170332200</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="str">
-        <f>B72</f>
-        <v>treatment of concentrating solar power plant, 110 MW</v>
-      </c>
-      <c r="B82" s="2">
-        <v>-1</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="2" t="str">
-        <f>B78</f>
-        <v>unit</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="2" t="str">
-        <f>B76</f>
-        <v>concentrating power plant, 110 MW</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="2">
-        <f>SUM(B39,B44,B52,B62,B65,B69)*-1</f>
-        <v>-7160000</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" s="2">
-        <f>SUM(B41,B42,B49,B50,B58,B63)*-1</f>
-        <v>-688484</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" s="2">
-        <f>B60*-1</f>
-        <v>-23000000</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="2">
-        <f>SUM(B36,B43,B64)*2200*-1</f>
-        <v>-207020000</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="5">
-        <f>B31*-1</f>
-        <v>-7800000</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B88" s="5">
-        <f>B35*-1</f>
-        <v>-420000</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="6">
-        <f>SUM(B34,B32,B40,B47,B48,B51,B53,B54,B55,B61,)*-1</f>
-        <v>-30765060</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>105</v>
+      <c r="B89" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90" s="2">
-        <f>B56*-1</f>
-        <v>-18000</v>
-      </c>
-      <c r="C90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="str">
+        <f>B89</f>
+        <v>treatment of concentrating solar power plant, 110 MW</v>
+      </c>
+      <c r="B99" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f>B95</f>
+        <v>unit</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="2" t="str">
+        <f>B93</f>
+        <v>concentrating power plant, 110 MW</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="2">
+        <f>SUM(B56,B61,B69,B79,B82,B86)*-1</f>
+        <v>-7160000</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="2">
+        <f>SUM(B58,B59,B66,B67,B75,B80)*-1</f>
+        <v>-688484</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="2">
+        <f>B77*-1</f>
+        <v>-23000000</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B103" s="2">
+        <f>SUM(B53,B60,B81)*2200*-1</f>
+        <v>-207020000</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="5">
+        <f>B48*-1</f>
+        <v>-7800000</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="5">
+        <f>B52*-1</f>
+        <v>-420000</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="6">
+        <f>SUM(B51,B49,B57,B64,B65,B68,B70,B71,B72,B78,)*-1</f>
+        <v>-30765060</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <f>B73*-1</f>
+        <v>-18000</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <f>B74*-1</f>
+        <v>-62000</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B91" s="2">
-        <f>B57*-1</f>
-        <v>-62000</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K115" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K132" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
